--- a/wind.xlsx
+++ b/wind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWareHouse\MATLAB\2022_A_bicycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F4CC68-A9DA-46DD-87C0-134562060DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61F004-ADA3-47B0-A59D-62DFC576B130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5604" yWindow="4800" windowWidth="13080" windowHeight="4440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,51 +412,384 @@
       <c r="G2">
         <v>211.50352825561637</v>
       </c>
+      <c r="H2">
+        <v>185.68393484712419</v>
+      </c>
+      <c r="I2">
+        <v>190.89865591930473</v>
+      </c>
+      <c r="J2">
+        <v>240.13262401994703</v>
+      </c>
+      <c r="K2">
+        <v>192.78507302271973</v>
+      </c>
+      <c r="L2">
+        <v>194.30983128058705</v>
+      </c>
+      <c r="M2">
+        <v>187.72156449386887</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
         <v>0.5</v>
       </c>
+      <c r="B3">
+        <v>189.27449556228703</v>
+      </c>
+      <c r="C3">
+        <v>189.00232939361268</v>
+      </c>
+      <c r="D3">
+        <v>187.91199082548061</v>
+      </c>
+      <c r="E3">
+        <v>192.03976459937874</v>
+      </c>
+      <c r="F3">
+        <v>192.38463865057679</v>
+      </c>
+      <c r="G3">
+        <v>191.34076284242383</v>
+      </c>
+      <c r="H3">
+        <v>184.85777813062569</v>
+      </c>
+      <c r="I3">
+        <v>216.06396991484738</v>
+      </c>
+      <c r="J3">
+        <v>188.65529946063859</v>
+      </c>
+      <c r="K3">
+        <v>191.26834116486782</v>
+      </c>
+      <c r="L3">
+        <v>187.16895233815805</v>
+      </c>
+      <c r="M3">
+        <v>189.79840259672309</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
         <v>1.5</v>
       </c>
+      <c r="B4">
+        <v>181.98295703048612</v>
+      </c>
+      <c r="C4">
+        <v>192.17726537527085</v>
+      </c>
+      <c r="D4">
+        <v>238.39743597888537</v>
+      </c>
+      <c r="E4">
+        <v>178.10276425734133</v>
+      </c>
+      <c r="F4">
+        <v>183.72158586565743</v>
+      </c>
+      <c r="G4">
+        <v>182.64303442159189</v>
+      </c>
+      <c r="H4">
+        <v>186.10606021602231</v>
+      </c>
+      <c r="I4">
+        <v>185.26074105313725</v>
+      </c>
+      <c r="J4">
+        <v>185.24855716611066</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>215.02648314234344</v>
+      </c>
+      <c r="M4">
+        <v>190.89558547633283</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>224.30900984901643</v>
+      </c>
+      <c r="C5">
+        <v>211.74922147265085</v>
+      </c>
+      <c r="D5">
+        <v>207.78121065352923</v>
+      </c>
+      <c r="E5">
+        <v>183.56616855614166</v>
+      </c>
+      <c r="F5">
+        <v>183.62147383309474</v>
+      </c>
+      <c r="G5">
+        <v>179.50446249096862</v>
+      </c>
+      <c r="H5">
+        <v>184.6799312486794</v>
+      </c>
+      <c r="I5">
+        <v>219.1641509996324</v>
+      </c>
+      <c r="J5">
+        <v>180.66291931768129</v>
+      </c>
+      <c r="K5">
+        <v>178.19077900091386</v>
+      </c>
+      <c r="L5">
+        <v>177.56538679058923</v>
+      </c>
+      <c r="M5">
+        <v>178.47467829096885</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>207.1010729536649</v>
+      </c>
+      <c r="C6">
+        <v>174.70550390015981</v>
+      </c>
+      <c r="D6">
+        <v>178.57595537045893</v>
+      </c>
+      <c r="E6">
+        <v>174.90788232019133</v>
+      </c>
+      <c r="F6">
+        <v>214.40860620978432</v>
+      </c>
+      <c r="G6">
+        <v>205.68170861740671</v>
+      </c>
+      <c r="H6">
+        <v>204.4480115937944</v>
+      </c>
+      <c r="I6">
+        <v>199.04642461642786</v>
+      </c>
+      <c r="J6">
+        <v>206.736579456844</v>
+      </c>
+      <c r="K6">
+        <v>203.6411052202169</v>
+      </c>
+      <c r="L6">
+        <v>194.42064569075515</v>
+      </c>
+      <c r="M6">
+        <v>197.4816002692445</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>193.87967525141747</v>
+      </c>
+      <c r="C7">
+        <v>209.62898816231831</v>
+      </c>
+      <c r="D7">
+        <v>200.27254159947699</v>
+      </c>
+      <c r="E7">
+        <v>203.87279295466433</v>
+      </c>
+      <c r="F7">
+        <v>191.50886604847264</v>
+      </c>
+      <c r="G7">
+        <v>196.47757249301117</v>
+      </c>
+      <c r="H7">
+        <v>203.3285590260295</v>
+      </c>
+      <c r="I7">
+        <v>197.89875686092429</v>
+      </c>
+      <c r="J7">
+        <v>211.84028558934193</v>
+      </c>
+      <c r="K7">
+        <v>196.54436953195858</v>
+      </c>
+      <c r="L7">
+        <v>215.59965811630295</v>
+      </c>
+      <c r="M7">
+        <v>189.62522712194388</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>185.84301064243181</v>
+      </c>
+      <c r="C8">
+        <v>200.8935490972068</v>
+      </c>
+      <c r="D8">
+        <v>208.90067853590497</v>
+      </c>
+      <c r="E8">
+        <v>204.81646171377946</v>
+      </c>
+      <c r="F8">
+        <v>196.63577039565436</v>
+      </c>
+      <c r="G8">
+        <v>186.50088239452964</v>
+      </c>
+      <c r="H8">
+        <v>191.39226691446649</v>
+      </c>
+      <c r="I8">
+        <v>194.84970957028588</v>
+      </c>
+      <c r="J8">
+        <v>153.10505931097066</v>
+      </c>
+      <c r="K8">
+        <v>211.09196846440562</v>
+      </c>
+      <c r="L8">
+        <v>198.50307600018522</v>
+      </c>
+      <c r="M8">
+        <v>192.16316194876325</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
         <v>12</v>
       </c>
+      <c r="B9">
+        <v>197.97341656531734</v>
+      </c>
+      <c r="C9">
+        <v>196.74832879272395</v>
+      </c>
+      <c r="D9">
+        <v>218.55141748732419</v>
+      </c>
+      <c r="E9">
+        <v>200.55322300432158</v>
+      </c>
+      <c r="F9">
+        <v>178.95686199187151</v>
+      </c>
+      <c r="G9">
+        <v>195.60092370273344</v>
+      </c>
+      <c r="H9">
+        <v>192.15914866452724</v>
+      </c>
+      <c r="I9">
+        <v>203.06731350934226</v>
+      </c>
+      <c r="J9">
+        <v>184.12260830748937</v>
+      </c>
+      <c r="K9">
+        <v>181.69460128686029</v>
+      </c>
+      <c r="L9">
+        <v>189.57350277208539</v>
+      </c>
+      <c r="M9">
+        <v>201.41425700933877</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
         <v>15</v>
       </c>
+      <c r="B10">
+        <v>152.14242628325636</v>
+      </c>
+      <c r="C10">
+        <v>225.89048447711835</v>
+      </c>
+      <c r="D10">
+        <v>202.08333195344579</v>
+      </c>
+      <c r="E10">
+        <v>189.42518761755557</v>
+      </c>
+      <c r="F10">
+        <v>193.40735777191114</v>
+      </c>
+      <c r="G10">
+        <v>200.08349896665482</v>
+      </c>
+      <c r="H10">
+        <v>183.00119131509709</v>
+      </c>
+      <c r="I10">
+        <v>192.26079942259892</v>
+      </c>
+      <c r="J10">
+        <v>181.61385124084421</v>
+      </c>
+      <c r="K10">
+        <v>202.28755915156833</v>
+      </c>
+      <c r="L10">
+        <v>180.3402394850215</v>
+      </c>
+      <c r="M10">
+        <v>176.94917420060688</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
         <v>20</v>
       </c>
+      <c r="B11">
+        <v>160.39566892263318</v>
+      </c>
+      <c r="C11">
+        <v>156.72151631858918</v>
+      </c>
+      <c r="D11">
+        <v>157.61951777740518</v>
+      </c>
+      <c r="E11">
+        <v>193.52271054783125</v>
+      </c>
+      <c r="F11">
+        <v>151.31381402782222</v>
+      </c>
+      <c r="G11">
+        <v>194.14014225332579</v>
+      </c>
+      <c r="H11">
+        <v>253.06910346514394</v>
+      </c>
+      <c r="I11">
+        <v>287.775727695711</v>
+      </c>
+      <c r="J11">
+        <v>150.47206906837019</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
@@ -476,5 +809,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>